--- a/doc_KB/Dong_bo_timesten.xlsx
+++ b/doc_KB/Dong_bo_timesten.xlsx
@@ -151,9 +151,6 @@
     <t>ChangePoolService</t>
   </si>
   <si>
-    <t>CSPKS_FO_TRANS.sp_update_pool</t>
-  </si>
-  <si>
     <t>CHGROOM</t>
   </si>
   <si>
@@ -494,6 +491,9 @@
   </si>
   <si>
     <t>0100/0101</t>
+  </si>
+  <si>
+    <t>sp_process_update_poolroom</t>
   </si>
 </sst>
 </file>
@@ -965,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +983,7 @@
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>0</v>
@@ -1000,10 +1000,10 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="5" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
@@ -1040,10 +1040,10 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>12</v>
@@ -1060,10 +1060,10 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="22" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>42</v>
@@ -1227,35 +1227,35 @@
         <v>44</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D24" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="F24" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="G24" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
@@ -1271,7 +1271,7 @@
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1279,21 +1279,21 @@
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
@@ -1309,7 +1309,7 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1317,21 +1317,21 @@
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D32" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="F32" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="G32" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
@@ -1339,7 +1339,7 @@
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">
@@ -1347,7 +1347,7 @@
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1355,21 +1355,21 @@
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.25">
@@ -1377,13 +1377,13 @@
         <v>111</v>
       </c>
       <c r="E37" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="G37" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.25">
@@ -1391,7 +1391,7 @@
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1399,7 +1399,7 @@
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1407,13 +1407,13 @@
         <v>1816</v>
       </c>
       <c r="E40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="41" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1421,13 +1421,13 @@
         <v>1809</v>
       </c>
       <c r="E41" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="G41" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="42" spans="4:7" x14ac:dyDescent="0.25">
@@ -1435,13 +1435,13 @@
         <v>2285</v>
       </c>
       <c r="E42" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="G42" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="43" spans="4:7" x14ac:dyDescent="0.25">
@@ -1449,7 +1449,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1457,33 +1457,33 @@
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D45" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="F45" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="46" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="G46" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="47" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1491,37 +1491,37 @@
         <v>2246</v>
       </c>
       <c r="E47" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="G47" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="48" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D48" s="6"/>
       <c r="E48" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="G48" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="49" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D49" s="6"/>
       <c r="E49" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="G49" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="50" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1529,13 +1529,13 @@
         <v>8879</v>
       </c>
       <c r="E50" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="G50" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="51" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1543,41 +1543,41 @@
         <v>8868</v>
       </c>
       <c r="E51" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="G51" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="52" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D52" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="F52" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="G52" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="53" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D53" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="F53" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="G53" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="54" spans="4:7" x14ac:dyDescent="0.25">
@@ -1585,7 +1585,7 @@
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c r="G54" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1593,7 +1593,7 @@
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1605,169 +1605,169 @@
     <row r="57" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="58" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="59" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="61" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="62" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="63" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="64" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="65" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="66" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="G66" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="67" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="G67" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="68" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="69" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="70" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="G70" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
